--- a/data/trans_camb/P7B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 32,58</t>
+          <t>-18,6; 19,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 16,17</t>
+          <t>-18,37; 20,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 14,58</t>
+          <t>-19,93; 18,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 10,82</t>
+          <t>-17,86; 19,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 9,51</t>
+          <t>-17,32; 21,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 6,81</t>
+          <t>-19,84; 18,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 15,93</t>
+          <t>-15,51; 12,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 9,73</t>
+          <t>-14,77; 14,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 7,28</t>
+          <t>-17,62; 12,08</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>66,82%</t>
+          <t>-5,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>-7,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,27 +758,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,95%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-8,16%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 433,17</t>
+          <t>-67,91; 204,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 210,11</t>
+          <t>-67,51; 215,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 179,71</t>
+          <t>-71,82; 202,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 81,49</t>
+          <t>-47,47; 99,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 69,6</t>
+          <t>-45,55; 111,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 50,08</t>
+          <t>-51,78; 99,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 117,11</t>
+          <t>-49,68; 72,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 74,15</t>
+          <t>-46,69; 78,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 59,87</t>
+          <t>-53,52; 63,2</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 11,0</t>
+          <t>-15,01; 14,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 8,72</t>
+          <t>-16,53; 12,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 10,79</t>
+          <t>-15,15; 14,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 10,94</t>
+          <t>-10,2; 10,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 10,99</t>
+          <t>-10,79; 10,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 10,02</t>
+          <t>-11,32; 10,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,76</t>
+          <t>-7,48; 8,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 7,2</t>
+          <t>-9,07; 7,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,52</t>
+          <t>-8,45; 8,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 39,32</t>
+          <t>-38,58; 56,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 32,57</t>
+          <t>-40,56; 48,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 38,27</t>
+          <t>-36,71; 58,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 29,38</t>
+          <t>-22,77; 29,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 31,16</t>
+          <t>-23,34; 28,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 28,34</t>
+          <t>-24,75; 28,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 23,1</t>
+          <t>-18,45; 25,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 21,93</t>
+          <t>-21,73; 23,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 21,72</t>
+          <t>-19,86; 25,64</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 10,79</t>
+          <t>-11,14; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 8,9</t>
+          <t>-12,74; 11,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 6,88</t>
+          <t>-12,81; 11,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 10,63</t>
+          <t>-9,13; 12,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 10,16</t>
+          <t>-10,58; 11,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 10,8</t>
+          <t>-11,26; 10,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 8,36</t>
+          <t>-7,9; 8,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,76</t>
+          <t>-9,05; 7,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 5,81</t>
+          <t>-9,51; 7,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>-1,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 33,54</t>
+          <t>-25,99; 39,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 27,2</t>
+          <t>-28,39; 35,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 21,41</t>
+          <t>-28,75; 36,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 27,77</t>
+          <t>-17,28; 29,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 26,3</t>
+          <t>-20,24; 26,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 26,85</t>
+          <t>-21,15; 24,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 21,94</t>
+          <t>-16,36; 21,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 17,84</t>
+          <t>-18,48; 20,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 15,37</t>
+          <t>-19,49; 17,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 6,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 34,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 24,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 24,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 20,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 19,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 15,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 17,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 15,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 12,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 8,46</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 7,92</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 8,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 7,76</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 6,94</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 5,91</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 5,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 5,64</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 5,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-26,58; 30,59</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-26,37; 28,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-26,12; 30,56</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 20,18</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 17,92</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-17,22; 15,21</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 16,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 16,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; 14,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
